--- a/Miscellaneous/STandSPDX_noDOBG.xlsx
+++ b/Miscellaneous/STandSPDX_noDOBG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Bareground\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BE9C52-00A7-4271-A1CF-D17F8071E5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F13F689-002D-48D6-89F2-4D8672A55D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="573" xr2:uid="{E1755C4D-E9BB-44F3-ACF5-60BBD832D35B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>Species</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>**-0.514</t>
+  </si>
+  <si>
+    <t>**-0.84</t>
+  </si>
+  <si>
+    <t>**-0.48</t>
+  </si>
+  <si>
+    <t>**0.49</t>
   </si>
 </sst>
 </file>
@@ -345,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -354,8 +363,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,16 +716,17 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -719,7 +742,7 @@
       <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F1" t="s">
@@ -751,22 +774,22 @@
       <c r="D2">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>-0.03</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>0.1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
@@ -783,22 +806,22 @@
       <c r="D3">
         <v>0.66200000000000003</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>-0.38</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>-0.1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -815,22 +838,22 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>-1E-3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>2E-3</v>
       </c>
     </row>
@@ -847,22 +870,22 @@
       <c r="D5">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>-0.48</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>-0.18</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>-0.06</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>0.01</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>-0.04</v>
       </c>
     </row>
@@ -879,22 +902,22 @@
       <c r="D6">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>0.248</v>
       </c>
     </row>
@@ -911,22 +934,22 @@
       <c r="D7">
         <v>0.92700000000000005</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>0.64</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>-0.21</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>0.49</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>-0.14599999999999999</v>
       </c>
     </row>
@@ -943,22 +966,22 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>0.25</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>0.16800000000000001</v>
       </c>
     </row>
@@ -975,22 +998,22 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>0.193</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1007,22 +1030,22 @@
       <c r="D10">
         <v>0.89900000000000002</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>-0.18</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>-0.107</v>
       </c>
     </row>
@@ -1039,22 +1062,22 @@
       <c r="D11">
         <v>0.998</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>-0.23</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <v>-0.16600000000000001</v>
       </c>
     </row>
@@ -1071,22 +1094,22 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>0.15</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>0.39</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>-0.183</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="7">
         <v>0.224</v>
       </c>
     </row>
@@ -1103,22 +1126,22 @@
       <c r="D13">
         <v>0.90400000000000003</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>-0.2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>0.08</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>-1.6E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="7">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
@@ -1135,22 +1158,22 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>-0.98</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>-0.1</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>-0.71</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>0.48699999999999999</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1167,22 +1190,22 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>0.05</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>0.69</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1197,22 +1220,22 @@
       <c r="D16">
         <v>0.999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>-0.52</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>0.05</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>-1.4E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -1229,22 +1252,22 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0.03</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>0.41</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>0.29599999999999999</v>
       </c>
     </row>
@@ -1261,22 +1284,22 @@
       <c r="D18">
         <v>0.67900000000000005</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>-0.24</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>-0.19700000000000001</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1285,31 +1308,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>608.93100000000004</v>
+        <v>524.59100000000001</v>
       </c>
       <c r="C19">
-        <v>1.2E-2</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D19">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="5">
-        <v>-0.18</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="J19">
-        <v>-0.125</v>
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1325,22 +1348,22 @@
       <c r="D20">
         <v>0.89700000000000002</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>-0.184</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>0.26400000000000001</v>
       </c>
     </row>
@@ -1357,22 +1380,22 @@
       <c r="D21">
         <v>0.83599999999999997</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>-0.36</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>0.34</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="7">
         <v>0.222</v>
       </c>
     </row>
@@ -1389,22 +1412,22 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>-0.15</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>0.41</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="7">
         <v>0.29699999999999999</v>
       </c>
     </row>
@@ -1421,22 +1444,22 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>-0.39</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>-0.18</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>0.02</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -1453,22 +1476,22 @@
       <c r="D24">
         <v>0.96199999999999997</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>-0.16</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>-0.06</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>0.20100000000000001</v>
       </c>
     </row>
@@ -1485,22 +1508,22 @@
       <c r="D25">
         <v>0.996</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <v>0.39</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <v>-0.105</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="7">
         <v>0.27700000000000002</v>
       </c>
     </row>

--- a/Miscellaneous/STandSPDX_noDOBG.xlsx
+++ b/Miscellaneous/STandSPDX_noDOBG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Bareground\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F13F689-002D-48D6-89F2-4D8672A55D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED7C440-E505-41BE-A40B-23FAE92DCC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="573" xr2:uid="{E1755C4D-E9BB-44F3-ACF5-60BBD832D35B}"/>
+    <workbookView xWindow="11796" yWindow="660" windowWidth="17280" windowHeight="8964" tabRatio="573" xr2:uid="{E1755C4D-E9BB-44F3-ACF5-60BBD832D35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Species</t>
   </si>
@@ -228,12 +228,6 @@
     <t>**0.52</t>
   </si>
   <si>
-    <t>*-0.524</t>
-  </si>
-  <si>
-    <t>*-0.548</t>
-  </si>
-  <si>
     <t>**-0.29</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>*-0.27</t>
   </si>
   <si>
-    <t>**-0.514</t>
-  </si>
-  <si>
     <t>**-0.84</t>
   </si>
   <si>
@@ -280,6 +271,27 @@
   </si>
   <si>
     <t>**0.49</t>
+  </si>
+  <si>
+    <t>**-0.548</t>
+  </si>
+  <si>
+    <t>**-0.524</t>
+  </si>
+  <si>
+    <t>***-0.514</t>
+  </si>
+  <si>
+    <t>*0.359</t>
+  </si>
+  <si>
+    <t>*-0.197</t>
+  </si>
+  <si>
+    <t>*0.342</t>
+  </si>
+  <si>
+    <t>*0.277</t>
   </si>
 </sst>
 </file>
@@ -715,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A5AB5F-197E-4FAB-B9E3-3343DF31F9C2}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,8 +737,9 @@
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -755,10 +768,10 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -787,10 +800,10 @@
         <v>35</v>
       </c>
       <c r="I2" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J2" s="7">
         <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="J2" s="7">
-        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -818,11 +831,11 @@
       <c r="H3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="7">
         <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -851,10 +864,10 @@
         <v>40</v>
       </c>
       <c r="I4" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="J4" s="7">
         <v>-1E-3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -883,10 +896,10 @@
         <v>41</v>
       </c>
       <c r="I5" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="J5" s="7">
         <v>0.01</v>
-      </c>
-      <c r="J5" s="7">
-        <v>-0.04</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -915,10 +928,10 @@
         <v>41</v>
       </c>
       <c r="I6" s="7">
+        <v>0.248</v>
+      </c>
+      <c r="J6" s="7">
         <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.248</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -947,10 +960,10 @@
         <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>0.49</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="J7" s="7">
-        <v>-0.14599999999999999</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -979,10 +992,10 @@
         <v>47</v>
       </c>
       <c r="I8" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J8" s="7">
         <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1010,11 +1023,11 @@
       <c r="H9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="7">
         <v>0.193</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1043,10 +1056,10 @@
         <v>40</v>
       </c>
       <c r="I10" s="7">
+        <v>-0.107</v>
+      </c>
+      <c r="J10" s="7">
         <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J10" s="7">
-        <v>-0.107</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1075,10 +1088,10 @@
         <v>51</v>
       </c>
       <c r="I11" s="7">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="J11" s="7">
         <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J11" s="7">
-        <v>-0.16600000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1107,10 +1120,10 @@
         <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>-0.183</v>
+        <v>0.224</v>
       </c>
       <c r="J12" s="7">
-        <v>0.224</v>
+        <v>-0.182</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1139,10 +1152,10 @@
         <v>55</v>
       </c>
       <c r="I13" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J13" s="7">
         <v>-1.6E-2</v>
-      </c>
-      <c r="J13" s="7">
-        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1170,11 +1183,11 @@
       <c r="H14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="7">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>71</v>
+      <c r="I14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="7">
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1202,10 +1215,12 @@
       <c r="H15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="7">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1224,7 +1239,7 @@
         <v>-0.52</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7">
         <v>0.05</v>
@@ -1233,10 +1248,10 @@
         <v>55</v>
       </c>
       <c r="I16" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J16" s="7">
         <v>-1.4E-2</v>
-      </c>
-      <c r="J16" s="7">
-        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1265,10 +1280,10 @@
         <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>-0.10100000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="J17" s="7">
-        <v>0.29599999999999999</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1288,19 +1303,19 @@
         <v>-0.24</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="7">
-        <v>-0.19700000000000001</v>
+      <c r="I18" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1317,22 +1332,22 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G19" s="8">
         <v>-0.1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I19" s="7">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="J19" s="7">
         <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="J19" s="7">
-        <v>-4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1349,22 +1364,22 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="7">
-        <v>-0.184</v>
+      <c r="I20" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="J20" s="7">
-        <v>0.26400000000000001</v>
+        <v>-0.126</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1393,10 +1408,10 @@
         <v>47</v>
       </c>
       <c r="I21" s="7">
+        <v>0.222</v>
+      </c>
+      <c r="J21" s="7">
         <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0.222</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1425,10 +1440,10 @@
         <v>51</v>
       </c>
       <c r="I22" s="7">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J22" s="7">
         <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1454,13 +1469,13 @@
         <v>0.02</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I23" s="7">
-        <v>-4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J23" s="7">
-        <v>1.2999999999999999E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1477,22 +1492,22 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7">
         <v>-0.16</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I24" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="J24" s="7">
         <v>-0.06</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1509,10 +1524,10 @@
         <v>0.996</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="7">
         <v>0.39</v>
@@ -1520,11 +1535,11 @@
       <c r="H25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="7">
         <v>-0.105</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0.27700000000000002</v>
       </c>
     </row>
   </sheetData>
